--- a/DZ1/dz.xlsx
+++ b/DZ1/dz.xlsx
@@ -436,19 +436,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10.12.164.128</t>
+          <t>10.12.234.192</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10.12.217.0</t>
+          <t>10.12.185.0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -460,19 +460,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10.12.22.0</t>
+          <t>10.12.8.128</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10.12.111.0</t>
+          <t>10.12.176.0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -484,103 +484,103 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10.12.18.0</t>
+          <t>10.12.152.0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10.12.229.128</t>
+          <t>192.168.227.0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10.12.140.64</t>
+          <t>10.12.222.8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10.12.127.0</t>
+          <t>10.12.236.0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10.12.73.0</t>
+          <t>10.12.217.192</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10.12.219.192</t>
+          <t>10.12.69.0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>192.168.2.248</t>
+          <t>10.12.228.0</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>192.168.99.0</t>
+          <t>10.12.133.64</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10.12.133.0</t>
+          <t>10.12.140.64</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,115 +592,115 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10.12.91.0</t>
+          <t>10.12.19.0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10.12.164.0</t>
+          <t>10.12.23.0</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10.12.79.0</t>
+          <t>10.12.216.192</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10.12.77.0</t>
+          <t>10.12.120.0</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10.0.0.0</t>
+          <t>10.12.142.64</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10.12.222.56</t>
+          <t>10.12.140.0</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10.11.252.8</t>
+          <t>10.12.232.0</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10.12.169.128</t>
+          <t>10.12.204.0</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10.12.170.0</t>
+          <t>10.12.124.192</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10.12.166.0</t>
+          <t>10.12.169.0</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,31 +712,31 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>10.12.236.128</t>
+          <t>10.12.230.0</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>10.12.194.0</t>
+          <t>10.12.123.0</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>10.12.192.0</t>
+          <t>10.12.216.128</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,19 +748,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>10.12.231.160</t>
+          <t>10.12.100.192</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>10.12.233.64</t>
+          <t>10.12.192.0</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,31 +772,31 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>91.216.121.240</t>
+          <t>10.12.80.0</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>255.255.255.252</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>10.12.232.200</t>
+          <t>192.168.214.0</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>255.255.255.255</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>192.168.231.0</t>
+          <t>10.12.66.0</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,43 +808,43 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>91.216.121.192</t>
+          <t>10.12.226.64</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>255.255.255.224</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10.12.169.0</t>
+          <t>10.12.87.0</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10.12.96.0</t>
+          <t>10.12.156.0</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10.12.124.192</t>
+          <t>10.12.218.192</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>10.12.237.0</t>
+          <t>10.12.182.0</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,79 +868,79 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>10.12.215.0</t>
+          <t>10.12.175.0</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>10.12.24.0</t>
+          <t>192.168.167.0</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10.12.228.128</t>
+          <t>10.0.0.0</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>10.12.10.64</t>
+          <t>192.168.231.0</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>10.12.112.0</t>
+          <t>10.12.81.128</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>10.12.222.40</t>
+          <t>192.168.99.0</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>10.12.17.0</t>
+          <t>10.12.138.192</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10.12.143.0</t>
+          <t>10.12.95.0</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>10.12.100.192</t>
+          <t>10.12.228.192</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>10.12.229.0</t>
+          <t>10.12.180.64</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,19 +988,19 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>10.12.185.64</t>
+          <t>10.12.186.0</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>10.12.67.0</t>
+          <t>10.12.77.0</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>10.12.12.0</t>
+          <t>10.12.221.128</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,19 +1024,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>10.12.16.128</t>
+          <t>91.216.121.254</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.255</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>10.12.224.64</t>
+          <t>10.12.140.128</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,103 +1048,103 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>10.12.25.0</t>
+          <t>10.12.215.0</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>10.12.133.64</t>
+          <t>91.216.121.253</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.255</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>10.12.231.184</t>
+          <t>172.16.0.0</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.0.0</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>10.12.236.0</t>
+          <t>10.12.112.0</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>10.12.140.128</t>
+          <t>10.12.200.0</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10.12.233.32</t>
+          <t>10.12.232.64</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>255.255.255.240</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>10.12.217.128</t>
+          <t>10.12.177.128</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>10.12.19.64</t>
+          <t>10.12.174.0</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>10.12.101.0</t>
+          <t>10.12.8.64</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,43 +1156,43 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>10.12.232.206</t>
+          <t>10.12.24.0</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>255.255.255.255</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>10.12.204.0</t>
+          <t>217.117.187.0</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>10.12.233.128</t>
+          <t>10.12.0.0</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.254.0</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>10.12.65.0</t>
+          <t>10.12.153.0</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,19 +1204,19 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>10.12.222.24</t>
+          <t>10.12.219.0</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>10.12.81.0</t>
+          <t>10.12.101.128</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>10.12.138.128</t>
+          <t>10.12.140.192</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>10.12.225.192</t>
+          <t>10.12.101.192</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1252,43 +1252,43 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>10.12.220.0</t>
+          <t>192.168.165.0</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>10.12.162.0</t>
+          <t>10.12.233.32</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.240</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>10.12.230.192</t>
+          <t>10.12.231.168</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>192.168.1.0</t>
+          <t>192.168.228.0</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1300,19 +1300,19 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>192.168.215.0</t>
+          <t>91.216.121.0</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>10.12.184.0</t>
+          <t>10.12.85.0</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1324,31 +1324,31 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>10.12.232.198</t>
+          <t>10.12.127.0</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>255.255.255.255</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>10.12.168.128</t>
+          <t>10.12.224.192</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>10.12.76.0</t>
+          <t>10.12.183.0</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1360,55 +1360,55 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>10.12.154.0</t>
+          <t>10.12.133.0</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>10.12.126.0</t>
+          <t>10.12.161.128</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>10.12.187.0</t>
+          <t>10.12.167.128</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>10.12.8.64</t>
+          <t>10.12.21.0</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>10.12.23.0</t>
+          <t>10.12.142.128</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1420,67 +1420,67 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>10.1.16.192</t>
+          <t>10.12.125.0</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>10.12.167.128</t>
+          <t>10.12.10.0</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>10.12.232.192</t>
+          <t>10.12.233.20</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>255.255.255.255</t>
+          <t>255.255.255.252</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>10.12.217.192</t>
+          <t>10.12.160.128</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>91.216.121.254</t>
+          <t>10.12.163.0</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>255.255.255.255</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>10.12.221.192</t>
+          <t>10.12.12.0</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1492,43 +1492,43 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>10.12.177.128</t>
+          <t>10.12.225.192</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>10.12.162.128</t>
+          <t>10.12.124.128</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>10.12.125.0</t>
+          <t>91.216.121.192</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.224</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>192.168.167.0</t>
+          <t>10.12.67.0</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1540,55 +1540,55 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>10.12.214.120</t>
+          <t>10.12.228.128</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>10.12.0.0</t>
+          <t>10.12.154.0</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>255.255.254.0</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>10.12.100.128</t>
+          <t>91.216.121.240</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.252</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>10.12.18.192</t>
+          <t>10.12.122.0</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>10.12.224.0</t>
+          <t>10.12.115.0</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1600,31 +1600,31 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>10.12.214.128</t>
+          <t>10.12.222.48</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>10.12.230.0</t>
+          <t>10.12.218.128</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>10.12.215.64</t>
+          <t>10.12.180.128</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1636,31 +1636,31 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>10.12.140.192</t>
+          <t>10.12.144.0</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>10.12.94.0</t>
+          <t>10.12.101.0</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>10.12.80.0</t>
+          <t>10.12.111.0</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>10.12.11.0</t>
+          <t>10.12.219.192</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1684,79 +1684,79 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>185.13.0.140</t>
+          <t>10.12.148.0</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>255.255.255.252</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>10.12.221.64</t>
+          <t>10.12.17.64</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>255.255.255.240</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>192.168.10.0</t>
+          <t>10.12.115.64</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>10.12.115.128</t>
+          <t>192.168.226.0</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>10.12.216.128</t>
+          <t>10.12.160.0</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>10.12.218.0</t>
+          <t>10.12.232.200</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.255</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>10.12.194.64</t>
+          <t>10.12.16.192</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>10.12.192.64</t>
+          <t>10.12.18.0</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1780,19 +1780,19 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>10.12.172.0</t>
+          <t>10.12.10.64</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>10.12.120.64</t>
+          <t>10.12.81.64</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>10.12.148.0</t>
+          <t>10.12.96.0</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1816,67 +1816,67 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>10.12.95.0</t>
+          <t>10.12.232.192</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.255</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>10.12.222.16</t>
+          <t>10.12.163.128</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>10.12.181.0</t>
+          <t>10.12.236.208</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.240</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>10.12.231.176</t>
+          <t>10.12.227.192</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>10.12.224.128</t>
+          <t>10.12.68.0</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>10.12.8.128</t>
+          <t>10.12.138.64</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1888,79 +1888,79 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>10.12.236.64</t>
+          <t>10.12.222.56</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>10.12.233.20</t>
+          <t>10.12.177.0</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>255.255.255.252</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>10.12.68.0</t>
+          <t>10.12.226.128</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>172.27.0.0</t>
+          <t>192.168.10.0</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>255.255.0.0</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>10.12.221.128</t>
+          <t>10.12.86.0</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>10.72.16.0</t>
+          <t>10.12.81.0</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>255.255.254.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>10.12.200.0</t>
+          <t>10.12.171.0</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1972,19 +1972,19 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>10.12.122.0</t>
+          <t>10.12.233.64</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>10.12.142.64</t>
+          <t>10.12.222.64</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1996,19 +1996,19 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>10.12.234.128</t>
+          <t>10.12.94.0</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>10.12.153.0</t>
+          <t>10.12.78.0</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2020,19 +2020,19 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>10.12.163.128</t>
+          <t>10.12.224.128</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>10.12.142.192</t>
+          <t>10.12.216.64</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2044,55 +2044,55 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>10.12.163.0</t>
+          <t>10.12.224.64</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>10.12.114.0</t>
+          <t>10.12.115.192</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>10.12.138.192</t>
+          <t>10.12.234.128</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>10.12.20.0</t>
+          <t>10.12.143.0</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>10.12.101.128</t>
+          <t>10.12.215.64</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>10.12.115.192</t>
+          <t>10.12.226.0</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>10.12.226.128</t>
+          <t>10.12.236.64</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2128,103 +2128,103 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>10.12.64.0</t>
+          <t>10.12.101.64</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>10.12.229.192</t>
+          <t>192.168.163.0</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>10.12.180.64</t>
+          <t>10.12.164.128</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>10.12.238.0</t>
+          <t>10.12.169.128</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>10.12.81.128</t>
+          <t>10.12.167.0</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>10.12.121.0</t>
+          <t>10.12.192.64</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>10.12.216.64</t>
+          <t>10.12.93.0</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>10.12.224.192</t>
+          <t>192.168.1.0</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>10.12.101.64</t>
+          <t>10.12.17.192</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2236,31 +2236,31 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>10.12.233.16</t>
+          <t>10.12.236.224</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>255.255.255.252</t>
+          <t>255.255.255.240</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>10.12.226.64</t>
+          <t>10.12.233.24</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.252</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>10.12.186.0</t>
+          <t>10.12.184.0</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2272,31 +2272,31 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>10.12.165.0</t>
+          <t>10.12.232.128</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>10.12.165.128</t>
+          <t>10.12.236.128</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>10.12.173.0</t>
+          <t>10.12.187.0</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2308,31 +2308,31 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>10.12.87.0</t>
+          <t>10.12.18.192</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>172.16.0.0</t>
+          <t>10.12.168.128</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>255.255.0.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>10.12.140.0</t>
+          <t>10.12.20.0</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2344,19 +2344,19 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>10.12.10.192</t>
+          <t>10.12.231.176</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>10.12.86.0</t>
+          <t>10.12.139.0</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2368,43 +2368,43 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>10.12.84.0</t>
+          <t>10.12.11.0</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>10.12.232.128</t>
+          <t>10.12.121.0</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>10.12.161.0</t>
+          <t>10.12.218.64</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>10.12.219.64</t>
+          <t>10.12.217.128</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>10.12.71.0</t>
+          <t>10.12.76.0</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2428,43 +2428,43 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>10.12.10.0</t>
+          <t>217.150.41.204</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.252</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>10.12.16.192</t>
+          <t>10.12.84.0</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>10.12.218.128</t>
+          <t>192.168.229.0</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>10.12.228.64</t>
+          <t>10.12.16.128</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2476,19 +2476,19 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>10.12.167.0</t>
+          <t>10.12.17.128</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>10.12.231.192</t>
+          <t>10.12.142.0</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2500,7 +2500,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>192.168.227.0</t>
+          <t>10.12.136.0</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2512,67 +2512,67 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>10.12.17.64</t>
+          <t>10.12.126.0</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>10.12.102.0</t>
+          <t>10.12.229.64</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>10.12.222.64</t>
+          <t>10.12.16.96</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.240</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>192.168.213.0</t>
+          <t>10.12.225.0</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>10.12.78.0</t>
+          <t>10.12.166.128</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>10.12.180.128</t>
+          <t>10.12.18.64</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2584,7 +2584,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>10.12.216.0</t>
+          <t>10.12.214.128</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>10.12.232.0</t>
+          <t>10.12.180.0</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2608,19 +2608,19 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>10.12.171.0</t>
+          <t>10.12.115.128</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>10.12.232.64</t>
+          <t>10.12.8.0</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2632,7 +2632,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>10.12.160.0</t>
+          <t>10.12.234.0</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2644,31 +2644,31 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>10.12.18.64</t>
+          <t>10.12.73.0</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>10.12.11.192</t>
+          <t>10.12.170.128</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>10.12.152.0</t>
+          <t>10.12.238.0</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2680,115 +2680,115 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>10.12.182.0</t>
+          <t>192.168.2.248</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>10.12.233.48</t>
+          <t>10.12.239.0</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>255.255.255.240</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>10.12.175.0</t>
+          <t>10.12.224.0</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>217.150.41.204</t>
+          <t>10.12.168.0</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>255.255.255.252</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>10.12.118.0</t>
+          <t>10.12.100.128</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>10.12.155.0</t>
+          <t>10.12.222.16</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>10.12.166.128</t>
+          <t>185.1.13.0</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>192.168.229.0</t>
+          <t>10.12.221.192</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>10.12.231.0</t>
+          <t>172.27.0.0</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.0.0</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>10.12.21.0</t>
+          <t>10.12.116.0</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2800,7 +2800,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>10.12.138.64</t>
+          <t>10.12.138.128</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>10.12.120.0</t>
+          <t>10.12.230.192</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2824,7 +2824,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>10.12.124.0</t>
+          <t>10.12.142.192</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2836,19 +2836,19 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>10.12.8.0</t>
+          <t>10.12.155.0</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>10.12.128.0</t>
+          <t>192.168.213.0</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2860,55 +2860,55 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>10.12.227.128</t>
+          <t>10.12.141.0</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>10.12.239.0</t>
+          <t>10.12.18.128</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>10.12.139.0</t>
+          <t>10.12.227.128</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>10.12.10.128</t>
+          <t>10.12.119.0</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>192.168.163.0</t>
+          <t>10.12.173.0</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -2920,7 +2920,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>10.12.11.64</t>
+          <t>10.12.120.64</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -2932,7 +2932,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>10.12.185.0</t>
+          <t>10.12.11.64</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -2944,7 +2944,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>185.1.13.0</t>
+          <t>10.12.172.0</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -2956,7 +2956,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>10.12.161.128</t>
+          <t>10.12.165.0</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -2968,7 +2968,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>10.12.227.64</t>
+          <t>10.12.219.128</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -2980,103 +2980,103 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>10.12.170.128</t>
+          <t>10.12.181.0</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>10.12.183.0</t>
+          <t>10.12.10.128</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>10.12.160.128</t>
+          <t>10.12.17.0</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>10.12.225.0</t>
+          <t>185.13.0.140</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.252</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>10.12.233.28</t>
+          <t>10.12.128.0</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>255.255.255.252</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>10.12.222.32</t>
+          <t>10.12.71.0</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>10.12.119.0</t>
+          <t>10.12.166.0</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>10.12.218.192</t>
+          <t>10.12.164.0</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>10.12.101.192</t>
+          <t>10.12.124.0</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3088,7 +3088,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>10.12.116.0</t>
+          <t>10.12.22.0</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3100,7 +3100,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>10.12.174.0</t>
+          <t>192.168.215.0</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3112,43 +3112,43 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>10.12.115.64</t>
+          <t>10.12.79.0</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>10.12.232.199</t>
+          <t>10.12.194.64</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>255.255.255.255</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>10.12.115.0</t>
+          <t>10.12.162.0</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>10.12.156.0</t>
+          <t>10.12.217.0</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3160,139 +3160,139 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>10.12.124.128</t>
+          <t>10.12.231.0</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>10.12.120.128</t>
+          <t>10.12.232.206</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.255</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>91.216.121.253</t>
+          <t>10.12.185.64</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>255.255.255.255</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>10.12.236.224</t>
+          <t>10.12.216.0</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>255.255.255.240</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>10.12.234.0</t>
+          <t>10.12.118.0</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>10.12.215.192</t>
+          <t>10.12.233.16</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.252</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>10.12.227.192</t>
+          <t>10.12.170.0</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>10.12.228.0</t>
+          <t>10.12.64.0</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>10.12.144.0</t>
+          <t>10.12.233.28</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.252</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>10.12.234.192</t>
+          <t>10.12.65.0</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>10.12.69.0</t>
+          <t>10.1.16.192</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>91.216.121.0</t>
+          <t>10.12.227.64</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -3304,19 +3304,19 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>10.12.81.64</t>
+          <t>10.12.102.0</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>217.117.187.0</t>
+          <t>10.12.229.128</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -3328,31 +3328,31 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>10.12.123.0</t>
+          <t>10.12.11.192</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>192.168.228.0</t>
+          <t>10.12.218.0</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>10.12.18.128</t>
+          <t>10.12.19.64</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -3364,19 +3364,19 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>10.12.66.0</t>
+          <t>10.12.222.24</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>10.12.142.128</t>
+          <t>10.12.222.128</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -3388,43 +3388,43 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>10.12.176.0</t>
+          <t>10.12.214.120</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>10.12.136.0</t>
+          <t>10.12.10.192</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>10.12.222.128</t>
+          <t>10.12.165.128</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>10.12.17.128</t>
+          <t>10.12.231.192</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -3436,19 +3436,19 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>10.12.93.0</t>
+          <t>10.12.162.128</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>10.12.19.0</t>
+          <t>10.12.214.192</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -3460,19 +3460,19 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>10.12.85.0</t>
+          <t>10.12.232.198</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.255</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>192.168.214.0</t>
+          <t>10.12.25.0</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -3484,67 +3484,67 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>10.12.177.0</t>
+          <t>10.12.237.0</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>10.12.222.48</t>
+          <t>10.12.114.0</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>10.12.72.0</t>
+          <t>10.12.232.199</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.255</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>10.12.236.208</t>
+          <t>10.12.124.64</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>255.255.255.240</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>10.12.222.8</t>
+          <t>10.72.16.0</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.254.0</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>10.12.142.0</t>
+          <t>10.12.229.0</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -3556,67 +3556,67 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>192.168.226.0</t>
+          <t>10.12.221.64</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.240</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>10.12.231.168</t>
+          <t>10.12.194.0</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>10.12.13.0</t>
+          <t>10.12.231.184</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>10.12.180.0</t>
+          <t>10.12.91.0</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>192.168.165.0</t>
+          <t>10.12.229.192</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>10.12.229.64</t>
+          <t>10.12.120.128</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -3628,31 +3628,31 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>10.12.16.96</t>
+          <t>10.12.219.64</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>255.255.255.240</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>10.12.218.64</t>
+          <t>10.12.222.40</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>10.12.168.0</t>
+          <t>10.12.161.0</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -3664,31 +3664,31 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>10.12.17.192</t>
+          <t>10.12.233.48</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.240</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>10.12.233.24</t>
+          <t>10.12.222.32</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>255.255.255.252</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>10.12.214.192</t>
+          <t>10.12.215.192</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -3700,31 +3700,31 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>10.12.216.192</t>
+          <t>10.12.72.0</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>10.12.219.128</t>
+          <t>10.12.231.160</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>10.12.219.0</t>
+          <t>10.12.220.0</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -3736,43 +3736,43 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>10.12.226.0</t>
+          <t>10.12.13.0</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>10.12.228.192</t>
+          <t>10.12.233.128</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>10.12.141.0</t>
+          <t>10.11.252.8</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>10.12.124.64</t>
+          <t>10.12.228.64</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
